--- a/wine_planning/data.xlsx
+++ b/wine_planning/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPOSITORIES\optimization\wine_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0C6273-DFC0-4254-830F-E74DD2E8283D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFFEE2A-70E5-4405-A686-A1AC0B62BCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19215" windowHeight="11760" xr2:uid="{0C0E6AF9-3545-4CFC-AF2C-4550681C761A}"/>
+    <workbookView xWindow="7260" yWindow="105" windowWidth="11895" windowHeight="8325" firstSheet="3" activeTab="4" xr2:uid="{0C0E6AF9-3545-4CFC-AF2C-4550681C761A}"/>
   </bookViews>
   <sheets>
     <sheet name="Profit" sheetId="1" r:id="rId1"/>
     <sheet name="Terrains" sheetId="2" r:id="rId2"/>
-    <sheet name="Budget" sheetId="3" r:id="rId3"/>
+    <sheet name="General Parameters" sheetId="3" r:id="rId3"/>
     <sheet name="Casks" sheetId="4" r:id="rId4"/>
     <sheet name="Production Limit" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Gross Profit</t>
   </si>
@@ -101,9 +101,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>Initial Budget</t>
-  </si>
-  <si>
     <t>Anual Salary</t>
   </si>
   <si>
@@ -120,6 +117,30 @@
   </si>
   <si>
     <t>Cask Year</t>
+  </si>
+  <si>
+    <t>Initial Workers</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Seed Price</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Maintenance Workers</t>
+  </si>
+  <si>
+    <t>Plant Workers</t>
+  </si>
+  <si>
+    <t>Production Limit</t>
   </si>
 </sst>
 </file>
@@ -155,8 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5496A22-0155-41D7-9519-85000DCD0E1D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,40 +710,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC8EC37-FA98-4E93-BBAB-321C78B98A3D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>120</v>
-      </c>
-      <c r="B2">
-        <v>3000</v>
-      </c>
-      <c r="C2">
-        <v>2000</v>
-      </c>
-      <c r="D2">
+      <c r="B5">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -741,13 +810,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -790,99 +859,132 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B101C2-AE79-4860-8731-DD74165A786A}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2013</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2014</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>1300</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2012</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2013</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2014</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2016</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>300</v>
       </c>
     </row>

--- a/wine_planning/data.xlsx
+++ b/wine_planning/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPOSITORIES\optimization\wine_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFFEE2A-70E5-4405-A686-A1AC0B62BCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93468DC7-B5A3-4141-A5D2-429D4088D6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="105" windowWidth="11895" windowHeight="8325" firstSheet="3" activeTab="4" xr2:uid="{0C0E6AF9-3545-4CFC-AF2C-4550681C761A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27555" windowHeight="16440" activeTab="3" xr2:uid="{0C0E6AF9-3545-4CFC-AF2C-4550681C761A}"/>
   </bookViews>
   <sheets>
     <sheet name="Profit" sheetId="1" r:id="rId1"/>
@@ -147,8 +147,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -176,9 +184,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,14 +811,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3626F5-F8A9-4CB9-9764-E42C39C2C5F4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
@@ -827,7 +836,7 @@
         <v>2012</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -849,7 +858,7 @@
         <v>2012</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B101C2-AE79-4860-8731-DD74165A786A}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
